--- a/data/mall-cloud-alibaba/content-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/content-common_structure.xlsx
@@ -237,55 +237,55 @@
     <t>private</t>
   </si>
   <si>
+    <t>recommendStatus</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>commentCount</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>albumPics</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>readCount</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>collectCount</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>showStatus</t>
+  </si>
+  <si>
     <t>forwardCount</t>
   </si>
   <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>albumPics</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
-    <t>recommendStatus</t>
-  </si>
-  <si>
-    <t>commentCount</t>
-  </si>
-  <si>
-    <t>categoryId</t>
-  </si>
-  <si>
-    <t>collectCount</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>content</t>
-  </si>
-  <si>
-    <t>readCount</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1724,7 +1724,7 @@
         <v>70</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1752,7 +1752,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1766,7 +1766,7 @@
         <v>70</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1774,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>70</v>
@@ -1788,13 +1788,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>70</v>
@@ -1816,13 +1816,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -1836,7 +1836,7 @@
         <v>70</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1850,7 +1850,7 @@
         <v>70</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -1864,7 +1864,7 @@
         <v>70</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +1892,7 @@
         <v>70</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1920,7 +1920,7 @@
         <v>70</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
